--- a/medicine/Psychotrope/Friuli_Grave/Friuli_Grave.xlsx
+++ b/medicine/Psychotrope/Friuli_Grave/Friuli_Grave.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Friuli Grave est un vin italien produit dans la région Frioul-Vénétie Julienne, doté d'une appellation DOC depuis le 1er octobre 1985. Seuls ont droit à la DOC les vins récoltés à l'intérieur de l'aire de production définie par le décret.
 </t>
@@ -511,7 +523,9 @@
           <t>Aire de l'appellation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vignobles autorisés se situent en province de Pordenone et en province d'Udine.
 En province de Pordenone dans les communes de Arba, Arzene, Aviano, Azzano Decimo, Brugnera, Budoia, Caneva, Casarsa della Delizia, Castelnovo del Friuli, Cavasso Nuovo, Cordenons, Fanna, Fiume Veneto, Fontanafredda, Maniago, Meduno, Montereale Valcellina, Pasiano di Pordenone, Pinzano al Tagliamento, Polcenigo, Porcia, Pordenone, Prata di Pordenone, Roveredo in Piano, Sacile, San Giorgio della Richinvelda, San Martino al Tagliamento, San Quirino, San Vito al Tagliamento, Sequals, Spilimbergo, Travesio, Vajont, Valvasone, Vivaro et Zoppola.
@@ -545,7 +559,9 @@
           <t>Cépages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les cépages les plus importants sont :
 Cabernet franc
@@ -588,7 +604,9 @@
           <t>Vins, appellations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Sous l’appellation, les vins suivants sont autorisés :
 Friuli Grave Cabernet
